--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/profile/Profile long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/profile/Profile long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2CF492-E72C-4DB4-8303-13AE6DE58F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675EF5D3-BF63-43CC-A8B6-C9357A5A654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="20" windowWidth="19150" windowHeight="10100" tabRatio="816" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="19170" windowHeight="10100" tabRatio="816" firstSheet="3" activeTab="6" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="211">
   <si>
     <t>PM</t>
   </si>
@@ -1571,16 +1571,7 @@
     <t>Profile: Create better documentation</t>
   </si>
   <si>
-    <t>Document Contact Info</t>
-  </si>
-  <si>
     <t>Document Direct Deposit</t>
-  </si>
-  <si>
-    <t>Document Notification Preferences</t>
-  </si>
-  <si>
-    <t>Document Account Settings</t>
   </si>
   <si>
     <t>Document Connected Apps</t>
@@ -1925,13 +1916,6 @@
     <t>Sprint 86 (11/2 - 11/15)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PM: Analytics request; Launch planning
-Design: Contact center guide 
-FE: Updates from research, if applicable
-BE: Updates from research, if applicable</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1979,21 +1963,12 @@
     <t>Accessibility audit/updates</t>
   </si>
   <si>
-    <t>Submit to 508 office</t>
-  </si>
-  <si>
     <t>Documentation updates</t>
   </si>
   <si>
-    <t xml:space="preserve">TBD re: prefill </t>
-  </si>
-  <si>
     <t>MHV working group; 1095B conversations/work; MHV notification prefs migration</t>
   </si>
   <si>
-    <t>Research updates; QA prep</t>
-  </si>
-  <si>
     <t>Launch planning; research updates</t>
   </si>
   <si>
@@ -2007,9 +1982,6 @@
   </si>
   <si>
     <t>Documentation sprint</t>
-  </si>
-  <si>
-    <t>Document Military Info (Tom)</t>
   </si>
   <si>
     <t>Ask Jason Woodman for Medallia data</t>
@@ -2032,50 +2004,12 @@
     <t>Scoping/kickoff</t>
   </si>
   <si>
-    <t>UAT &amp; launch (pending prefill dependency; Documentation</t>
-  </si>
-  <si>
-    <t>Military info</t>
-  </si>
-  <si>
-    <t>Personal info</t>
-  </si>
-  <si>
-    <t>Document Personal info Design; FE; BE)</t>
-  </si>
-  <si>
     <t>Scope effort/LTP; Maybe Collab cycle kickoff; Begin design</t>
   </si>
   <si>
     <t>Discovery -- review accessibility notes on what needs to be fixed, and talk about process (especially around how we want to test this work with users throughout)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Do we need to coordinate launch with prefill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?; Launch to 25%; Launch to 50%; Launch to 100%; Documentation sprint (Tom)</t>
-    </r>
-  </si>
-  <si>
-    <t>Privacy &amp; security review; Coordinate internal UAT (ask people on the team to make sure their military info looks correct)</t>
-  </si>
-  <si>
     <t>Forms system updates</t>
   </si>
   <si>
@@ -2086,6 +2020,203 @@
   </si>
   <si>
     <t>Scope work/Planning</t>
+  </si>
+  <si>
+    <t>On hold for documentation</t>
+  </si>
+  <si>
+    <t>On hold in favor of documentation</t>
+  </si>
+  <si>
+    <t>Document Notification Preferences (Liz); Document Account Settings (Christina, if Personal info is complete)</t>
+  </si>
+  <si>
+    <t>On hold due to VA Profile needing to update ICD and access permissions</t>
+  </si>
+  <si>
+    <t>Once VA Profile has completed the ICD and access permissions (after July 18), coordinate internal UAT (ask people on the team to make sure their military info looks correct); Potentially start launch, if time.</t>
+  </si>
+  <si>
+    <t>Document contact info (Liz)</t>
+  </si>
+  <si>
+    <t>Document Military Info (Tom); Contact info continues</t>
+  </si>
+  <si>
+    <t>Military info (Tom); 
+Contact info (Liz)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assuming VA Profile is ready to go, Run internal UAT. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We will launch the following sprint when I'm back from vacation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Launch to 25%; Launch to 50%; Launch to 100%; Documentation sprint (Tom)</t>
+  </si>
+  <si>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>TBD, but there may be 1095B work</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Request QA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Updates from research, if applicable</t>
+    </r>
+  </si>
+  <si>
+    <t>UAT is likely not possible since we can't control who sees the BAI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Analytics request (this is already done, right?); Release plan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Design updates; Document and ticket for frontend</t>
+    </r>
+  </si>
+  <si>
+    <t>Continued work</t>
+  </si>
+  <si>
+    <t>Continue Personal info</t>
+  </si>
+  <si>
+    <t>Document Personal info (Christina, Adam, Tom)</t>
+  </si>
+  <si>
+    <t>Personal info  (team)</t>
+  </si>
+  <si>
+    <t>Research write up</t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2258,6 +2389,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2575,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2732,7 +2864,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -2740,7 +2872,7 @@
         <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -2748,7 +2880,7 @@
         <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -2756,7 +2888,7 @@
         <v>97</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -2764,7 +2896,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -2772,7 +2904,7 @@
         <v>101</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2780,7 +2912,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3074,7 +3206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7808A-6775-498A-B607-482E9A4A47BB}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3140,10 +3272,10 @@
         <v>94</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3151,7 +3283,7 @@
         <v>96</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3159,7 +3291,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -3167,25 +3299,31 @@
         <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3214,7 +3352,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3295,7 +3433,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3319,30 +3457,39 @@
         <v>98</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -3360,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D172D61-57A6-44E0-A78D-80D0E1F503ED}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3423,7 +3570,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3431,7 +3578,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3439,7 +3586,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3447,7 +3594,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3455,7 +3602,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
@@ -3463,7 +3610,7 @@
         <v>98</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -3471,17 +3618,23 @@
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3505,7 +3658,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3594,7 +3747,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3602,7 +3755,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -3610,7 +3763,7 @@
         <v>94</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -3618,7 +3771,7 @@
         <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>129</v>
@@ -3629,7 +3782,7 @@
         <v>97</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>126</v>
@@ -3640,7 +3793,7 @@
         <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -3648,65 +3801,71 @@
         <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3879,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3733,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3753,16 +3912,16 @@
         <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -3771,7 +3930,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -3779,17 +3938,26 @@
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>128</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -3811,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C51A941-02A6-418F-89F8-D288F6FA2F67}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3825,7 +3993,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3845,47 +4013,62 @@
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3898,7 +4081,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3947,7 +4130,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3955,7 +4138,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3963,7 +4146,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3971,7 +4154,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3979,7 +4162,7 @@
         <v>101</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3987,7 +4170,7 @@
         <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3995,15 +4178,15 @@
         <v>103</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4011,15 +4194,12 @@
         <v>128</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4032,15 +4212,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="23.4140625" customWidth="1"/>
+    <col min="2" max="2" width="34.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -4075,16 +4255,16 @@
         <v>128</v>
       </c>
       <c r="G2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>162</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -4095,44 +4275,35 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" t="s">
-        <v>177</v>
+        <v>167</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>178</v>
+        <v>169</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4143,90 +4314,96 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D7" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>189</v>
-      </c>
       <c r="F8" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>189</v>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" t="s">
+        <v>190</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -4235,12 +4412,12 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/profile/Profile long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/profile/Profile long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C9B10-2223-4054-8150-126CA1D87DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF98C57-D95F-4EC9-AF02-910093F7B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="130" windowWidth="19180" windowHeight="10100" tabRatio="816" firstSheet="1" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="10" windowWidth="19200" windowHeight="10100" tabRatio="816" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility updates" sheetId="24" r:id="rId1"/>
@@ -1260,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50925302-19A4-44B8-A685-88618D937342}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807B25CD-4164-4213-B55D-F2746EFDFD8A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1820,7 +1820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA62A0-287B-4E85-BC69-338849C9F42A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
